--- a/06_robo_dog/ユースケース駆動開発_分析設計書_Robodog.xlsx
+++ b/06_robo_dog/ユースケース駆動開発_分析設計書_Robodog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo01/Desktop/develop/ohara_uml/06_robo_dog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_nisihara\Desktop\develop\ohara_uml\06_robo_dog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20972C2-D763-7B4A-9050-308B0B9DF115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB28AD9-D7D6-4D8B-9333-6C16FB7B11D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="14" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="46">
   <si>
     <t>要求分析／企画書</t>
     <rPh sb="0" eb="2">
@@ -397,12 +397,16 @@
 6. システムは、足し算の結果を登録し、「足し算の結果表示画面」に足し算結果を表示する</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>にしはらたくみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,6 +1264,69 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1275,13 +1342,55 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
@@ -1313,111 +1422,6 @@
     </xf>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2028,6 +2032,50 @@
         <a:xfrm>
           <a:off x="165099" y="812800"/>
           <a:ext cx="8992235" cy="3733800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>372917</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>126600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F58441-5FF1-EF0D-2EF6-5DFD777C35E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9747826" y="1050236"/>
+          <a:ext cx="7766628" cy="5545570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2552,13 +2600,13 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2585,7 +2633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2602,7 +2650,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -2631,9 +2679,9 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="98" t="s">
         <v>21</v>
       </c>
@@ -2660,49 +2708,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="101"/>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
       <c r="D2" s="103"/>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="53" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="62">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45916</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="101"/>
       <c r="B3" s="102"/>
       <c r="C3" s="102"/>
       <c r="D3" s="103"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="64"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="104"/>
       <c r="B4" s="105"/>
       <c r="C4" s="105"/>
@@ -2714,30 +2762,30 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="65"/>
-    </row>
-    <row r="5" spans="1:15" ht="19" thickTop="1"/>
-    <row r="6" spans="1:15" ht="28" customHeight="1"/>
-    <row r="7" spans="1:15" ht="28" customHeight="1"/>
-    <row r="8" spans="1:15" ht="28" customHeight="1"/>
-    <row r="9" spans="1:15" ht="28" customHeight="1"/>
-    <row r="10" spans="1:15" ht="28" customHeight="1"/>
-    <row r="11" spans="1:15" ht="28" customHeight="1"/>
-    <row r="12" spans="1:15" ht="28" customHeight="1"/>
-    <row r="13" spans="1:15" ht="28" customHeight="1"/>
-    <row r="14" spans="1:15" ht="28" customHeight="1"/>
-    <row r="15" spans="1:15" ht="28" customHeight="1"/>
-    <row r="16" spans="1:15" ht="28" customHeight="1"/>
-    <row r="17" ht="28" customHeight="1"/>
-    <row r="18" ht="28" customHeight="1"/>
-    <row r="19" ht="28" customHeight="1"/>
-    <row r="20" ht="28" customHeight="1"/>
-    <row r="21" ht="18" customHeight="1"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="O2:O4"/>
@@ -2769,9 +2817,9 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="107" t="s">
         <v>22</v>
       </c>
@@ -2798,49 +2846,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="110"/>
       <c r="B2" s="111"/>
       <c r="C2" s="111"/>
       <c r="D2" s="112"/>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="53" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="62">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45916</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="110"/>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
       <c r="D3" s="112"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="64"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="113"/>
       <c r="B4" s="114"/>
       <c r="C4" s="114"/>
@@ -2852,30 +2900,30 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="65"/>
-    </row>
-    <row r="5" spans="1:15" ht="19" thickTop="1"/>
-    <row r="6" spans="1:15" ht="28" customHeight="1"/>
-    <row r="7" spans="1:15" ht="28" customHeight="1"/>
-    <row r="8" spans="1:15" ht="28" customHeight="1"/>
-    <row r="9" spans="1:15" ht="28" customHeight="1"/>
-    <row r="10" spans="1:15" ht="28" customHeight="1"/>
-    <row r="11" spans="1:15" ht="28" customHeight="1"/>
-    <row r="12" spans="1:15" ht="28" customHeight="1"/>
-    <row r="13" spans="1:15" ht="28" customHeight="1"/>
-    <row r="14" spans="1:15" ht="28" customHeight="1"/>
-    <row r="15" spans="1:15" ht="28" customHeight="1"/>
-    <row r="16" spans="1:15" ht="28" customHeight="1"/>
-    <row r="17" ht="28" customHeight="1"/>
-    <row r="18" ht="28" customHeight="1"/>
-    <row r="19" ht="28" customHeight="1"/>
-    <row r="20" ht="28" customHeight="1"/>
-    <row r="21" ht="18" customHeight="1"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="O2:O4"/>
@@ -2907,15 +2955,15 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
@@ -2936,53 +2984,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="75" t="s">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="53" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="62">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45916</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="50" t="s">
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="64"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="13" t="s">
         <v>43</v>
       </c>
@@ -2990,198 +3038,205 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="65"/>
-    </row>
-    <row r="5" spans="1:15" ht="20" thickTop="1" thickBot="1"/>
-    <row r="6" spans="1:15" ht="22" thickTop="1" thickBot="1">
-      <c r="B6" s="45" t="s">
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="1:15" ht="22" thickTop="1" thickBot="1">
-      <c r="B7" s="91" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="82" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="84"/>
-    </row>
-    <row r="8" spans="1:15" ht="21" thickBot="1">
-      <c r="B8" s="78" t="s">
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="85" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
-    </row>
-    <row r="9" spans="1:15" ht="21" thickBot="1">
-      <c r="B9" s="78" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="85" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
-    </row>
-    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1">
-      <c r="B10" s="78" t="s">
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="88" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
-    </row>
-    <row r="11" spans="1:15" ht="21" thickBot="1">
-      <c r="B11" s="78" t="s">
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="85" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
-    </row>
-    <row r="12" spans="1:15" ht="21" thickBot="1">
-      <c r="B12" s="78" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
-    </row>
-    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1">
-      <c r="B13" s="78" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
+    </row>
+    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="88" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
-    </row>
-    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1">
-      <c r="B14" s="78" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
+    </row>
+    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="88" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-    </row>
-    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B15" s="93" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
+    </row>
+    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="97"/>
-    </row>
-    <row r="16" spans="1:15" ht="19" thickTop="1"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="B12:M12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D7:M7"/>
@@ -3194,18 +3249,11 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D15:M15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3220,13 +3268,13 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="98" t="s">
         <v>21</v>
       </c>
@@ -3253,49 +3301,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="101"/>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
       <c r="D2" s="103"/>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="53" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="62">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45916</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="101"/>
       <c r="B3" s="102"/>
       <c r="C3" s="102"/>
       <c r="D3" s="103"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="64"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="104"/>
       <c r="B4" s="105"/>
       <c r="C4" s="105"/>
@@ -3307,30 +3355,30 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="65"/>
-    </row>
-    <row r="5" spans="1:15" ht="19" thickTop="1"/>
-    <row r="6" spans="1:15" ht="28" customHeight="1"/>
-    <row r="7" spans="1:15" ht="28" customHeight="1"/>
-    <row r="8" spans="1:15" ht="28" customHeight="1"/>
-    <row r="9" spans="1:15" ht="28" customHeight="1"/>
-    <row r="10" spans="1:15" ht="28" customHeight="1"/>
-    <row r="11" spans="1:15" ht="28" customHeight="1"/>
-    <row r="12" spans="1:15" ht="28" customHeight="1"/>
-    <row r="13" spans="1:15" ht="28" customHeight="1"/>
-    <row r="14" spans="1:15" ht="28" customHeight="1"/>
-    <row r="15" spans="1:15" ht="28" customHeight="1"/>
-    <row r="16" spans="1:15" ht="28" customHeight="1"/>
-    <row r="17" ht="28" customHeight="1"/>
-    <row r="18" ht="28" customHeight="1"/>
-    <row r="19" ht="28" customHeight="1"/>
-    <row r="20" ht="28" customHeight="1"/>
-    <row r="21" ht="18" customHeight="1"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="O2:O4"/>
@@ -3362,9 +3410,9 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="107" t="s">
         <v>22</v>
       </c>
@@ -3391,49 +3439,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="110"/>
       <c r="B2" s="111"/>
       <c r="C2" s="111"/>
       <c r="D2" s="112"/>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="53" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="62">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45916</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="110"/>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
       <c r="D3" s="112"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="64"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="113"/>
       <c r="B4" s="114"/>
       <c r="C4" s="114"/>
@@ -3445,30 +3493,30 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="65"/>
-    </row>
-    <row r="5" spans="1:15" ht="19" thickTop="1"/>
-    <row r="6" spans="1:15" ht="28" customHeight="1"/>
-    <row r="7" spans="1:15" ht="28" customHeight="1"/>
-    <row r="8" spans="1:15" ht="28" customHeight="1"/>
-    <row r="9" spans="1:15" ht="28" customHeight="1"/>
-    <row r="10" spans="1:15" ht="28" customHeight="1"/>
-    <row r="11" spans="1:15" ht="28" customHeight="1"/>
-    <row r="12" spans="1:15" ht="28" customHeight="1"/>
-    <row r="13" spans="1:15" ht="28" customHeight="1"/>
-    <row r="14" spans="1:15" ht="28" customHeight="1"/>
-    <row r="15" spans="1:15" ht="28" customHeight="1"/>
-    <row r="16" spans="1:15" ht="28" customHeight="1"/>
-    <row r="17" ht="28" customHeight="1"/>
-    <row r="18" ht="28" customHeight="1"/>
-    <row r="19" ht="28" customHeight="1"/>
-    <row r="20" ht="28" customHeight="1"/>
-    <row r="21" ht="18" customHeight="1"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="O2:O4"/>
@@ -3500,9 +3548,9 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="116" t="s">
         <v>23</v>
       </c>
@@ -3529,7 +3577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="119"/>
       <c r="B2" s="120"/>
       <c r="C2" s="120"/>
@@ -3552,7 +3600,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -3581,9 +3629,9 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="122" t="s">
         <v>24</v>
       </c>
@@ -3610,43 +3658,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="125"/>
       <c r="B2" s="126"/>
       <c r="C2" s="126"/>
       <c r="D2" s="127"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="125"/>
       <c r="B3" s="126"/>
       <c r="C3" s="126"/>
       <c r="D3" s="127"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="64"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="128"/>
       <c r="B4" s="129"/>
       <c r="C4" s="129"/>
@@ -3656,14 +3704,14 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="65"/>
-    </row>
-    <row r="5" spans="1:15" ht="19" thickTop="1"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="O2:O4"/>
@@ -3695,9 +3743,9 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -3724,7 +3772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -3741,8 +3789,8 @@
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1"/>
-    <row r="4" spans="1:15" ht="27">
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3756,7 +3804,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="27">
+    <row r="5" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3770,7 +3818,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="27">
+    <row r="6" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3784,7 +3832,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="27">
+    <row r="7" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3798,7 +3846,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="27">
+    <row r="8" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3812,7 +3860,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="27">
+    <row r="9" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3826,7 +3874,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="27">
+    <row r="10" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3840,7 +3888,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="27">
+    <row r="11" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3854,7 +3902,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="27">
+    <row r="12" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3868,7 +3916,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="27">
+    <row r="13" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3882,7 +3930,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="27">
+    <row r="14" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3896,7 +3944,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="27">
+    <row r="15" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3910,7 +3958,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="27">
+    <row r="16" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3924,7 +3972,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" ht="27">
+    <row r="17" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3938,7 +3986,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" ht="27">
+    <row r="18" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3952,7 +4000,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13" ht="27">
+    <row r="19" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3994,9 +4042,9 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
@@ -4023,7 +4071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="29"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -4040,7 +4088,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -4065,13 +4113,13 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -4098,7 +4146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="35"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -4111,7 +4159,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="15"/>
       <c r="J2" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="18"/>
@@ -4121,7 +4169,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -4146,13 +4194,13 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
@@ -4179,7 +4227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -4202,7 +4250,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="M1:N1"/>
@@ -4227,19 +4275,19 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
@@ -4260,53 +4308,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="75" t="s">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="53" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="62">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45916</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="50" t="s">
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="64"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="13" t="s">
         <v>28</v>
       </c>
@@ -4314,193 +4362,213 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="65"/>
-    </row>
-    <row r="5" spans="1:15" ht="20" thickTop="1" thickBot="1"/>
-    <row r="6" spans="1:15" ht="22" thickTop="1" thickBot="1">
-      <c r="B6" s="45" t="s">
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="1:15" ht="22" thickTop="1" thickBot="1">
-      <c r="B7" s="91" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="82" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="84"/>
-    </row>
-    <row r="8" spans="1:15" ht="21" thickBot="1">
-      <c r="B8" s="78" t="s">
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="85" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
-    </row>
-    <row r="9" spans="1:15" ht="21" thickBot="1">
-      <c r="B9" s="78" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="85" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
-    </row>
-    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1">
-      <c r="B10" s="78" t="s">
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="88" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
-    </row>
-    <row r="11" spans="1:15" ht="21" thickBot="1">
-      <c r="B11" s="78" t="s">
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="85" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
-    </row>
-    <row r="12" spans="1:15" ht="21" thickBot="1">
-      <c r="B12" s="78" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
-    </row>
-    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1">
-      <c r="B13" s="78" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
+    </row>
+    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="88" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
-    </row>
-    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1">
-      <c r="B14" s="78" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
+    </row>
+    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="88" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-    </row>
-    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B15" s="93" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
+    </row>
+    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="97"/>
-    </row>
-    <row r="16" spans="1:15" ht="19" thickTop="1"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:M15"/>
     <mergeCell ref="B11:C11"/>
@@ -4510,26 +4578,6 @@
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4544,13 +4592,13 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="75" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="98" t="s">
         <v>21</v>
       </c>
@@ -4577,49 +4625,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="101"/>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
       <c r="D2" s="103"/>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="53" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="62">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45916</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="101"/>
       <c r="B3" s="102"/>
       <c r="C3" s="102"/>
       <c r="D3" s="103"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="64"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="104"/>
       <c r="B4" s="105"/>
       <c r="C4" s="105"/>
@@ -4631,30 +4679,30 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="65"/>
-    </row>
-    <row r="5" spans="1:15" ht="19" thickTop="1"/>
-    <row r="6" spans="1:15" ht="28" customHeight="1"/>
-    <row r="7" spans="1:15" ht="28" customHeight="1"/>
-    <row r="8" spans="1:15" ht="28" customHeight="1"/>
-    <row r="9" spans="1:15" ht="28" customHeight="1"/>
-    <row r="10" spans="1:15" ht="28" customHeight="1"/>
-    <row r="11" spans="1:15" ht="28" customHeight="1"/>
-    <row r="12" spans="1:15" ht="28" customHeight="1"/>
-    <row r="13" spans="1:15" ht="28" customHeight="1"/>
-    <row r="14" spans="1:15" ht="28" customHeight="1"/>
-    <row r="15" spans="1:15" ht="28" customHeight="1"/>
-    <row r="16" spans="1:15" ht="28" customHeight="1"/>
-    <row r="17" ht="28" customHeight="1"/>
-    <row r="18" ht="28" customHeight="1"/>
-    <row r="19" ht="28" customHeight="1"/>
-    <row r="20" ht="28" customHeight="1"/>
-    <row r="21" ht="18" customHeight="1"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="O2:O4"/>
@@ -4686,9 +4734,9 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="107" t="s">
         <v>22</v>
       </c>
@@ -4715,49 +4763,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="110"/>
       <c r="B2" s="111"/>
       <c r="C2" s="111"/>
       <c r="D2" s="112"/>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="53" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="62">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45916</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="110"/>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
       <c r="D3" s="112"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="64"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="113"/>
       <c r="B4" s="114"/>
       <c r="C4" s="114"/>
@@ -4769,30 +4817,30 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="65"/>
-    </row>
-    <row r="5" spans="1:15" ht="19" thickTop="1"/>
-    <row r="6" spans="1:15" ht="28" customHeight="1"/>
-    <row r="7" spans="1:15" ht="28" customHeight="1"/>
-    <row r="8" spans="1:15" ht="28" customHeight="1"/>
-    <row r="9" spans="1:15" ht="28" customHeight="1"/>
-    <row r="10" spans="1:15" ht="28" customHeight="1"/>
-    <row r="11" spans="1:15" ht="28" customHeight="1"/>
-    <row r="12" spans="1:15" ht="28" customHeight="1"/>
-    <row r="13" spans="1:15" ht="28" customHeight="1"/>
-    <row r="14" spans="1:15" ht="28" customHeight="1"/>
-    <row r="15" spans="1:15" ht="28" customHeight="1"/>
-    <row r="16" spans="1:15" ht="28" customHeight="1"/>
-    <row r="17" ht="28" customHeight="1"/>
-    <row r="18" ht="28" customHeight="1"/>
-    <row r="19" ht="28" customHeight="1"/>
-    <row r="20" ht="28" customHeight="1"/>
-    <row r="21" ht="18" customHeight="1"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="O2:O4"/>
@@ -4824,15 +4872,15 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" thickTop="1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
@@ -4853,53 +4901,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" thickBot="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="75" t="s">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="53" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="62">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45916</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" thickTop="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="50" t="s">
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="64"/>
-    </row>
-    <row r="4" spans="1:15" ht="19" thickBot="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="13" t="s">
         <v>35</v>
       </c>
@@ -4907,193 +4955,213 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="65"/>
-    </row>
-    <row r="5" spans="1:15" ht="20" thickTop="1" thickBot="1"/>
-    <row r="6" spans="1:15" ht="22" thickTop="1" thickBot="1">
-      <c r="B6" s="45" t="s">
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="1:15" ht="22" thickTop="1" thickBot="1">
-      <c r="B7" s="91" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="82" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="84"/>
-    </row>
-    <row r="8" spans="1:15" ht="21" thickBot="1">
-      <c r="B8" s="78" t="s">
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="85" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
-    </row>
-    <row r="9" spans="1:15" ht="21" thickBot="1">
-      <c r="B9" s="78" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="85" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
-    </row>
-    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1">
-      <c r="B10" s="78" t="s">
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="88" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
-    </row>
-    <row r="11" spans="1:15" ht="21" thickBot="1">
-      <c r="B11" s="78" t="s">
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="85" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
-    </row>
-    <row r="12" spans="1:15" ht="21" thickBot="1">
-      <c r="B12" s="78" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
-    </row>
-    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1">
-      <c r="B13" s="78" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
+    </row>
+    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="88" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
-    </row>
-    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1">
-      <c r="B14" s="78" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
+    </row>
+    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="88" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-    </row>
-    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B15" s="93" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
+    </row>
+    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="97"/>
-    </row>
-    <row r="16" spans="1:15" ht="19" thickTop="1"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:M15"/>
     <mergeCell ref="B11:C11"/>
@@ -5103,26 +5171,6 @@
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5131,6 +5179,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="00b68e39924f37ea7b1a5acaf8857e0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1760b117eeeff4f4de69ce8d4b9089c6" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -5331,15 +5388,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5352,13 +5400,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85EA5C6B-9E12-4E71-BAE9-64D38EF5D16A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6198EEFF-7D6F-45AF-AE16-8C0BCDB9D19C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6198EEFF-7D6F-45AF-AE16-8C0BCDB9D19C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85EA5C6B-9E12-4E71-BAE9-64D38EF5D16A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FF421E1-8B06-4690-82DB-949875E89D45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FF421E1-8B06-4690-82DB-949875E89D45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/06_robo_dog/ユースケース駆動開発_分析設計書_Robodog.xlsx
+++ b/06_robo_dog/ユースケース駆動開発_分析設計書_Robodog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_nisihara\Desktop\develop\ohara_uml\06_robo_dog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB28AD9-D7D6-4D8B-9333-6C16FB7B11D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533BB20A-B977-4DEE-88D7-70D30506F761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="14" r:id="rId1"/>
@@ -2244,10 +2244,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22095</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>218965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2270,8 +2270,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1206500"/>
-          <a:ext cx="6540500" cy="4000500"/>
+          <a:off x="0" y="1167816"/>
+          <a:ext cx="6737038" cy="4153046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2675,7 +2675,7 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="87" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
@@ -4113,7 +4113,7 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+    <sheetView zoomScale="55" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:L2"/>
     </sheetView>
   </sheetViews>
@@ -4592,7 +4592,7 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
